--- a/timetables.xlsx
+++ b/timetables.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA162 (L)</t>
+          <t>Open elective(CS151/PH151/HS151) (L)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -522,7 +522,11 @@
           <t>- (B)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS161 (L)</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -553,30 +557,26 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC161 (L)</t>
+          <t>CS161 (L)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS161 (L)</t>
+          <t>HS161 (L)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>HS161 (L)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>ASD151 (L)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>ASD151 (L)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>EC161 (P)</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -587,7 +587,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA162 (L)</t>
+          <t>Open elective(CS151/PH151/HS151) (L)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -598,15 +598,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS161 (L)</t>
+          <t>EC161 (L)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS161 (L)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>HS161 (L)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ASD151 (L)</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -620,7 +624,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Open elective(CS151/PH151/HS151) (L)</t>
+          <t>MA162 (L)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -631,24 +635,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA162 (L)</t>
+          <t>EC161 (L)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC161 (L)</t>
+          <t>CS161 (L)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>HS161 (L)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>ASD151 (L)</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -661,7 +661,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Open elective(CS151/PH151/HS151) (L)</t>
+          <t>MA162 (L)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -672,22 +672,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>MA162 (L)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>EC161 (L)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>HS161 (L)</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>EC161 (P)</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="8">
@@ -928,7 +928,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS201 (L)</t>
+          <t>HS205 (L)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -937,26 +937,10 @@
           <t>- (B)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS201 (L)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS207 (L)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>CS202 (L)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>EC209 (L)</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -969,7 +953,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS207 (L)</t>
+          <t>EC209 (L)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -978,16 +962,8 @@
           <t>- (B)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EC209 (L)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>HS205 (L)</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -1002,7 +978,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS201 (L)</t>
+          <t>CS207 (L)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -1018,22 +994,34 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>CS201 (L)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CS207 (L)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>CS202 (L)</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>HS205 (L)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>HS205 (L)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>EC209 (L)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CS207 (P)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>CS202 (P)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1054,7 +1042,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DS201 (L)</t>
+          <t>CS201 (L)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1064,21 +1052,25 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>EC209 (L)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>CS202 (L)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>HS205 (L)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>HS205 (L)</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>DS201 (P)</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>CS207 (P)</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1088,7 +1080,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS207 (L)</t>
+          <t>DS201 (L)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1097,16 +1089,24 @@
           <t>- (B)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>DS201 (L)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>EC209 (L)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CS207 (L)</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>CS202 (P)</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DS301 (L)</t>
+          <t>DS302 (L)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -1363,14 +1363,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS307 (L)</t>
+          <t>DS304 (L)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CS307 (P)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DS304 (P)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1380,7 +1388,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS301 (L)</t>
+          <t>DS303 (L)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -1391,14 +1399,10 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DS302 (L)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>DS304 (L)</t>
-        </is>
-      </c>
+          <t>CS307 (L)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -1433,7 +1437,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS307 (L)</t>
+          <t>DS302 (L)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -1450,7 +1454,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS302 (L)</t>
+          <t>DS301 (L)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1461,23 +1465,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DS303 (L)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>DS301 (L)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>DS304 (L)</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>CS307 (L)</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>CS307 (P)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>DS304 (P)</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1501,11 +1505,7 @@
           <t>DS303 (L)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>DS304 (L)</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -1726,17 +1726,37 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DS401 (L)</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>- (B)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Elective 2 (L)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Elective 3 (L)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Elective 4 (L)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Elective 4 (L)</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -1749,7 +1769,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elective 3 (L)</t>
+          <t>DS401 (L)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -1760,14 +1780,10 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Elective 4 (L)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Elective 4 (L)</t>
-        </is>
-      </c>
+          <t>Elective 3 (L)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -1791,17 +1807,13 @@
           <t>- (B)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Elective 2 (L)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elective 3 (L)</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1815,7 +1827,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS401 (L)</t>
+          <t>Elective 2 (L)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1824,11 +1836,7 @@
           <t>- (B)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Elective 3 (L)</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -1855,19 +1863,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DS401 (L)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Elective 2 (L)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
           <t>Elective 4 (L)</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Introduction to DS and AI (L)</t>
+          <t>Statistics (L)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -2122,12 +2122,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Open elective I (L)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Economics (L)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Problem Solving through Programming (L)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Introduction to DS and AI (L)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -2140,7 +2152,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Open elective I (L)</t>
+          <t>Economics (L)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -2149,28 +2161,12 @@
           <t>- (B)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Open elective I (L)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Economics (L)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Problem Solving through Programming (L)</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Problem Solving through Programming (P)</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -2197,12 +2193,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Economics (L)</t>
+          <t>Open elective I (L)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Economics (L)</t>
+          <t>Problem Solving through Programming (L)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -2218,7 +2214,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Introduction to DS and AI (L)</t>
+          <t>Open elective I (L)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -2227,12 +2223,24 @@
           <t>- (B)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Economics (L)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Introduction to DS and AI (L)</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Problem Solving through Programming (P)</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -2243,7 +2251,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Statistics (L)</t>
+          <t>Problem Solving through Programming (L)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -2254,19 +2262,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Open elective I (L)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Problem Solving through Programming (L)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Problem Solving through Programming (L)</t>
-        </is>
-      </c>
+          <t>Introduction to DS and AI (L)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -2499,31 +2499,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC207 (L)</t>
+          <t>EC206 (L)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC207 (L)</t>
+          <t>EC206 (L)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>EC207 (L)</t>
+          <t>EC202 (L)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>EC202 (L)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
           <t>HS102 (L)</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>EC206 (P)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>EC202 (P)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2533,7 +2537,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC201 (L)</t>
+          <t>MA202 (L)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -2542,16 +2546,20 @@
           <t>- (B)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EC207 (L)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>EC201 (L)</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>EC206 (P)</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -2562,7 +2570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA202 (L)</t>
+          <t>EC207 (L)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -2576,8 +2584,16 @@
           <t>EC206 (L)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>EC201 (L)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>EC202 (L)</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -2591,7 +2607,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC206 (L)</t>
+          <t>EC207 (L)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -2600,21 +2616,9 @@
           <t>- (B)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>EC206 (L)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>EC201 (L)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>EC202 (L)</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -2628,7 +2632,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MA202 (L)</t>
+          <t>EC201 (L)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -2639,26 +2643,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC201 (L)</t>
+          <t>EC202 (L)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC202 (L)</t>
+          <t>HS102 (L)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>HS102 (L)</t>
+          <t>MA202 (L)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>EC202 (P)</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="8">
@@ -2915,11 +2915,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Int2Alg (L)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>ADCS (L)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Elective 3 (L)</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -2932,7 +2940,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC301 (L)</t>
+          <t>EC306 (L)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -2943,12 +2951,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Int2Alg (L)</t>
+          <t>EC301 (L)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ADCS (L)</t>
+          <t>LSB (L)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -2956,11 +2964,7 @@
           <t>Elective 3 (L)</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Elective 3 (L)</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -2973,7 +2977,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC301 (L)</t>
+          <t>ADCS (L)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -2982,21 +2986,9 @@
           <t>- (B)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>EC301 (L)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LSB (L)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Int2Alg (L)</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -3010,7 +3002,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC306 (L)</t>
+          <t>LSB (L)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -3021,19 +3013,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC306 (L)</t>
+          <t>Int2Alg (L)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ADCS (L)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Elective 3 (L)</t>
-        </is>
-      </c>
+          <t>Int2Alg (L)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -3047,7 +3035,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LSB (L)</t>
+          <t>EC306 (L)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -3058,12 +3046,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Int2Alg (L)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+          <t>EC301 (L)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>EC301 (L)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ADCS (L)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Elective 3 (L)</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NEW1 (L)</t>
+          <t>NEW2 (L)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NEW3 (L)</t>
+          <t>NEW4 (L)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NEW2 (L)</t>
+          <t>NEW1 (L)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -3348,16 +3348,8 @@
           <t>- (B)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NEW2 (L)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NEW4 (L)</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -3381,7 +3373,11 @@
           <t>- (B)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NEW3 (L)</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -3408,12 +3404,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>NEW2 (L)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>NEW3 (L)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NEW4 (L)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -3449,7 +3445,11 @@
           <t>NEW4 (L)</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NEW4 (L)</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -3660,23 +3660,39 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA201 (L)</t>
+          <t>CS201 (L)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>HS206 (L)</t>
+          <t>CS207 (L)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>HS206 (L)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>CS208 (L)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>CS202 (L)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CS202 (L)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CS207 (P)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>CS202 (P)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3686,7 +3702,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS201 (L)</t>
+          <t>CS208 (L)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -3697,39 +3713,23 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS201 (L)</t>
+          <t>MA201 (L)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS207 (L)</t>
+          <t>HS206 (L)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CS208 (L)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>CS208 (L)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>CS202 (L)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>CS208 (P)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>CS202 (P)</t>
-        </is>
-      </c>
+          <t>HS206 (L)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA201 (L)</t>
+          <t>CS201 (L)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -3748,12 +3748,28 @@
           <t>- (B)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CS207 (L)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CS202 (L)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>MA201 (L)</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CS208 (P)</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -3764,7 +3780,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS207 (L)</t>
+          <t>CS208 (L)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -3775,12 +3791,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS208 (L)</t>
+          <t>MA201 (L)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS202 (L)</t>
+          <t>HS206 (L)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -3806,28 +3822,12 @@
           <t>- (B)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CS202 (L)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>MA201 (L)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>HS206 (L)</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>CS207 (P)</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="8">
@@ -4066,15 +4066,27 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CS303 (L)</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>- (B)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Theory basket  (L)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Open electives (L)</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -4089,7 +4101,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS303 (L)</t>
+          <t>CS309 (L)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -4105,15 +4117,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>CS303 (L)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Theory basket  (L)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Open electives (L)</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Open electives (L)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
@@ -4130,7 +4146,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS309 (L)</t>
+          <t>CS304 (L)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -4141,19 +4157,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS309 (L)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>Theory basket  (L)</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Theory basket  (L)</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -4167,7 +4175,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS309 (L)</t>
+          <t>CS304 (L)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -4178,29 +4186,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS303 (L)</t>
+          <t>Theory basket  (L)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS304 (L)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>CS304 (L)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>CS304 (L)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Theory basket  (L)</t>
-        </is>
-      </c>
+          <t>Open electives (L)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
     </row>
@@ -4212,7 +4208,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Theory basket  (L)</t>
+          <t>CS309 (L)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -4223,15 +4219,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>CS309 (L)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CS304 (L)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Open electives (L)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Open electives (L)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Open elective(CS151/PH151/HS151) (L)</t>
+          <t>EC161 (L)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -4799,20 +4799,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC161 (L)</t>
+          <t>Open elective(CS151/PH151/HS151) (L)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Open elective(CS151/PH151/HS151) (L)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CS161 (L)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>HS161 (L)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>ASD151 (L)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -4825,7 +4829,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA162 (L)</t>
+          <t>ASD151 (L)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -4836,23 +4840,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HS161 (L)</t>
+          <t>Open elective(CS151/PH151/HS151) (L)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>EC161 (P)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>CS161 (P)</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4862,7 +4858,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC161 (L)</t>
+          <t>HS161 (L)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -4873,14 +4869,10 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC161 (L)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>CS161 (L)</t>
-        </is>
-      </c>
+          <t>ASD151 (L)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -4895,7 +4887,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Open elective(CS151/PH151/HS151) (L)</t>
+          <t>EC161 (L)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -4906,25 +4898,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Open elective(CS151/PH151/HS151) (L)</t>
+          <t>MA162 (L)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>MA162 (L)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>EC161 (L)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>CS161 (L)</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>CS161 (L)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>ASD151 (L)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
     </row>
@@ -4936,7 +4932,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MA162 (L)</t>
+          <t>CS161 (L)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -4947,23 +4943,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>HS161 (L)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>MA162 (L)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>HS161 (L)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ASD151 (L)</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>EC161 (P)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>CS161 (P)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5214,30 +5214,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS202 (L)</t>
+          <t>CS201 (L)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA201 (L)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>HS206 (L)</t>
-        </is>
-      </c>
+          <t>CS207 (L)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>HS206 (L)</t>
+          <t>CS208 (L)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>CS207 (P)</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -5257,17 +5249,17 @@
           <t>- (B)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS208 (L)</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>MA201 (L)</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>MA201 (L)</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -5281,7 +5273,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS207 (L)</t>
+          <t>CS208 (L)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -5292,12 +5284,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS207 (L)</t>
+          <t>CS202 (L)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS208 (L)</t>
+          <t>CS202 (L)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -5305,13 +5297,13 @@
           <t>HS206 (L)</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>HS206 (L)</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>CS208 (P)</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -5322,7 +5314,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS207 (L)</t>
+          <t>CS202 (L)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -5333,19 +5325,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS202 (L)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CS202 (L)</t>
-        </is>
-      </c>
+          <t>CS208 (L)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CS207 (P)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>CS208 (P)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5355,7 +5351,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS201 (L)</t>
+          <t>CS207 (L)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -5366,7 +5362,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS208 (L)</t>
+          <t>CS207 (L)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -5374,7 +5370,11 @@
           <t>MA201 (L)</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>HS206 (L)</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS309 (L)</t>
+          <t>CS304 (L)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -5633,14 +5633,10 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS309 (L)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS303 (L)</t>
-        </is>
-      </c>
+          <t>Open electives (L)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -5655,7 +5651,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS304 (L)</t>
+          <t>Open electives (L)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -5664,16 +5660,16 @@
           <t>- (B)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Theory basket  (L)</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Open electives (P)</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -5684,7 +5680,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS303 (L)</t>
+          <t>CS309 (L)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -5695,17 +5691,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>CS309 (L)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CS303 (L)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CS303 (L)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CS304 (L)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>Theory basket  (L)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Theory basket  (L)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
     </row>
@@ -5717,7 +5725,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS303 (L)</t>
+          <t>CS304 (L)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -5726,16 +5734,24 @@
           <t>- (B)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS304 (L)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Theory basket  (L)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Theory basket  (L)</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CS303 (P)</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -5746,7 +5762,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS309 (L)</t>
+          <t>CS303 (L)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -5757,7 +5773,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS304 (L)</t>
+          <t>CS309 (L)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -5765,27 +5781,11 @@
           <t>Theory basket  (L)</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Open electives (L)</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Open electives (L)</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>CS303 (P)</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Open electives (P)</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DS102 (L)</t>
+          <t>CS105 (L)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -6352,19 +6352,11 @@
           <t>DS104 (L)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>HS103 (L)</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>HS103 (P)</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -6384,16 +6376,8 @@
           <t>- (B)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DS102 (L)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>DS104 (L)</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -6408,7 +6392,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS101 (L)</t>
+          <t>DS104 (L)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -6419,19 +6403,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS105 (L)</t>
+          <t>DS104 (L)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>DS104 (L)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
           <t>HS103 (L)</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -6456,14 +6436,26 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>DS102 (L)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>DS102 (L)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>CS105 (L)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>HS103 (P)</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -6474,7 +6466,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS102 (L)</t>
+          <t>DS101 (L)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -6485,11 +6477,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>DS102 (L)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>CS105 (L)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>HS103 (L)</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
